--- a/scripts/自营大区所有渠道2018-12-01--2018-12-31的月报.xlsx
+++ b/scripts/自营大区所有渠道2018-12-01--2018-12-31的月报.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="344">
   <si>
     <t>自营大区 大区12月报数据</t>
   </si>
@@ -144,7 +144,7 @@
     <t>3/4</t>
   </si>
   <si>
-    <t>11.83%</t>
+    <t>11.86%</t>
   </si>
   <si>
     <t>3/1</t>
@@ -162,7 +162,7 @@
     <t>10/12</t>
   </si>
   <si>
-    <t>55.11%</t>
+    <t>55.12%</t>
   </si>
   <si>
     <t>21/1</t>
@@ -195,7 +195,7 @@
     <t>0/2167</t>
   </si>
   <si>
-    <t>26.66%</t>
+    <t>26.80%</t>
   </si>
   <si>
     <t>20/658</t>
@@ -213,7 +213,7 @@
     <t>0/3</t>
   </si>
   <si>
-    <t>0.16%</t>
+    <t>0.48%</t>
   </si>
   <si>
     <t>总计</t>
@@ -231,13 +231,13 @@
     <t>9254.0/5986.0</t>
   </si>
   <si>
-    <t>1157.00</t>
+    <t>1187.00</t>
   </si>
   <si>
     <t>125.0/350.0</t>
   </si>
   <si>
-    <t>87.00</t>
+    <t>93.00</t>
   </si>
   <si>
     <t>24.0/54.0</t>
@@ -249,22 +249,22 @@
     <t>3.0/30.0</t>
   </si>
   <si>
-    <t>643838.00</t>
+    <t>649016.00</t>
   </si>
   <si>
     <t>49825.0/67444.0</t>
   </si>
   <si>
-    <t>13747.00</t>
-  </si>
-  <si>
-    <t>19.06%</t>
+    <t>13773.00</t>
+  </si>
+  <si>
+    <t>19.08%</t>
   </si>
   <si>
     <t>2841.0/3228.0</t>
   </si>
   <si>
-    <t>1530781.50</t>
+    <t>1532419.50</t>
   </si>
   <si>
     <t>12269.0/4552.0</t>
@@ -690,19 +690,19 @@
     <t>67.0/69.0</t>
   </si>
   <si>
-    <t>44908.00</t>
+    <t>44963.00</t>
   </si>
   <si>
     <t>8268.0/3988.0</t>
   </si>
   <si>
-    <t>852.00</t>
+    <t>873.00</t>
   </si>
   <si>
     <t>93.0/272.0</t>
   </si>
   <si>
-    <t>83.00</t>
+    <t>89.00</t>
   </si>
   <si>
     <t>24.0/53.0</t>
@@ -714,16 +714,16 @@
     <t>2.0/24.0</t>
   </si>
   <si>
-    <t>6586.00</t>
-  </si>
-  <si>
-    <t>6.23%</t>
+    <t>6593.00</t>
+  </si>
+  <si>
+    <t>6.22%</t>
   </si>
   <si>
     <t>2796.0/2563.0</t>
   </si>
   <si>
-    <t>8388.00</t>
+    <t>10026.00</t>
   </si>
   <si>
     <t>2.99%</t>
@@ -813,16 +813,13 @@
     <t>720.0/1.0</t>
   </si>
   <si>
-    <t>93.00</t>
-  </si>
-  <si>
     <t>10.0/12.0</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>3605.00</t>
+    <t>3606.00</t>
   </si>
   <si>
     <t>0.32%</t>
@@ -888,7 +885,7 @@
     <t>3.0/4.0</t>
   </si>
   <si>
-    <t>1280.00</t>
+    <t>1284.00</t>
   </si>
   <si>
     <t>0.03%</t>
@@ -978,7 +975,7 @@
     <t>264.0/1372.0</t>
   </si>
   <si>
-    <t>106.00</t>
+    <t>112.00</t>
   </si>
   <si>
     <t>18.0/56.0</t>
@@ -993,7 +990,7 @@
     <t>1.0/7.0</t>
   </si>
   <si>
-    <t>2269.00</t>
+    <t>2281.00</t>
   </si>
   <si>
     <t>0.23%</t>
@@ -1026,9 +1023,6 @@
     <t>1.00</t>
   </si>
   <si>
-    <t>89.00</t>
-  </si>
-  <si>
     <t>湘潭渠道渠道12月报数据</t>
   </si>
   <si>
@@ -1053,10 +1047,13 @@
     <t>0.0/625.0</t>
   </si>
   <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>0.0/3.0</t>
+  </si>
+  <si>
     <t>3.00</t>
-  </si>
-  <si>
-    <t>0.0/3.0</t>
   </si>
 </sst>
 </file>
@@ -2587,13 +2584,13 @@
         <v>22</v>
       </c>
       <c r="F4" s="27" t="n">
-        <v>853</v>
+        <v>874</v>
       </c>
       <c r="G4" s="27" t="s">
         <v>23</v>
       </c>
       <c r="H4" s="27" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="I4" s="27" t="s">
         <v>24</v>
@@ -2605,13 +2602,13 @@
         <v>25</v>
       </c>
       <c r="L4" s="27" t="n">
-        <v>391538</v>
+        <v>394272</v>
       </c>
       <c r="M4" s="27" t="s">
         <v>26</v>
       </c>
       <c r="N4" s="27" t="n">
-        <v>6587</v>
+        <v>6594</v>
       </c>
       <c r="O4" s="27" t="s">
         <v>27</v>
@@ -2620,7 +2617,7 @@
         <v>28</v>
       </c>
       <c r="Q4" s="27" t="n">
-        <v>8388</v>
+        <v>10026</v>
       </c>
       <c r="R4" s="27" t="s">
         <v>29</v>
@@ -2773,13 +2770,13 @@
         <v>31</v>
       </c>
       <c r="L7" s="27" t="n">
-        <v>88692</v>
+        <v>90302</v>
       </c>
       <c r="M7" s="28" t="s">
         <v>31</v>
       </c>
       <c r="N7" s="27" t="n">
-        <v>1280</v>
+        <v>1284</v>
       </c>
       <c r="O7" s="27" t="s">
         <v>40</v>
@@ -2891,7 +2888,7 @@
         <v>31</v>
       </c>
       <c r="N9" s="27" t="n">
-        <v>3605</v>
+        <v>3606</v>
       </c>
       <c r="O9" s="27" t="s">
         <v>46</v>
@@ -2923,7 +2920,7 @@
         <v>52</v>
       </c>
       <c r="F10" s="27" t="n">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="G10" s="27" t="s">
         <v>53</v>
@@ -2941,13 +2938,13 @@
         <v>55</v>
       </c>
       <c r="L10" s="27" t="n">
-        <v>60348</v>
+        <v>61030</v>
       </c>
       <c r="M10" s="28" t="s">
         <v>56</v>
       </c>
       <c r="N10" s="27" t="n">
-        <v>2269</v>
+        <v>2281</v>
       </c>
       <c r="O10" s="27" t="s">
         <v>57</v>
@@ -2979,7 +2976,7 @@
         <v>61</v>
       </c>
       <c r="F11" s="29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G11" s="30" t="s">
         <v>62</v>
@@ -2997,13 +2994,13 @@
         <v>31</v>
       </c>
       <c r="L11" s="29" t="n">
-        <v>1026</v>
+        <v>1178</v>
       </c>
       <c r="M11" s="30" t="s">
         <v>31</v>
       </c>
       <c r="N11" s="29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O11" s="29" t="s">
         <v>63</v>
@@ -3348,7 +3345,7 @@
         <v>110</v>
       </c>
       <c r="H23" s="29" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="I23" s="29" t="s">
         <v>111</v>
@@ -3446,7 +3443,7 @@
         <v>120</v>
       </c>
       <c r="F25" s="29" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G25" s="29" t="s">
         <v>121</v>
@@ -3758,7 +3755,7 @@
         <v>132</v>
       </c>
       <c r="F31" s="29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G31" s="29" t="s">
         <v>133</v>
@@ -3810,7 +3807,7 @@
         <v>138</v>
       </c>
       <c r="F32" s="29" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G32" s="29" t="s">
         <v>139</v>
@@ -4226,7 +4223,7 @@
         <v>38</v>
       </c>
       <c r="F40" s="29" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G40" s="29" t="s">
         <v>157</v>
@@ -4244,7 +4241,7 @@
         <v>31</v>
       </c>
       <c r="L40" s="29" t="n">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="M40" s="29" t="s">
         <v>158</v>
@@ -4330,7 +4327,7 @@
         <v>165</v>
       </c>
       <c r="F42" s="29" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G42" s="29" t="s">
         <v>166</v>
@@ -4348,7 +4345,7 @@
         <v>31</v>
       </c>
       <c r="L42" s="29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M42" s="29" t="s">
         <v>36</v>
@@ -4816,7 +4813,7 @@
         <v>179</v>
       </c>
       <c r="L51" s="29" t="n">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="M51" s="29" t="s">
         <v>180</v>
@@ -4825,7 +4822,7 @@
         <v>181</v>
       </c>
       <c r="O51" s="29" t="n">
-        <v>0</v>
+        <v>1638</v>
       </c>
       <c r="P51" s="29" t="s">
         <v>31</v>
@@ -4850,7 +4847,7 @@
         <v>38</v>
       </c>
       <c r="F52" s="29" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G52" s="29" t="s">
         <v>183</v>
@@ -4868,7 +4865,7 @@
         <v>31</v>
       </c>
       <c r="L52" s="29" t="n">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="M52" s="29" t="s">
         <v>184</v>
@@ -5006,7 +5003,7 @@
         <v>196</v>
       </c>
       <c r="F55" s="29" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G55" s="29" t="s">
         <v>197</v>
@@ -5208,7 +5205,7 @@
         <v>208</v>
       </c>
       <c r="D59" s="29" t="n">
-        <v>2656</v>
+        <v>2711</v>
       </c>
       <c r="E59" s="29" t="s">
         <v>209</v>
@@ -5830,7 +5827,7 @@
         <v>31</v>
       </c>
       <c r="L81" s="29" t="n">
-        <v>3605</v>
+        <v>3606</v>
       </c>
       <c r="M81" s="29" t="s">
         <v>256</v>
@@ -5916,10 +5913,10 @@
         <v>262</v>
       </c>
       <c r="F83" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="G83" s="29" t="s">
         <v>263</v>
-      </c>
-      <c r="G83" s="29" t="s">
-        <v>264</v>
       </c>
       <c r="H83" s="29" t="s">
         <v>248</v>
@@ -5928,25 +5925,25 @@
         <v>245</v>
       </c>
       <c r="J83" s="29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K83" s="30" t="s">
         <v>245</v>
       </c>
       <c r="L83" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="M83" s="29" t="s">
         <v>266</v>
       </c>
-      <c r="M83" s="29" t="s">
+      <c r="N83" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="N83" s="29" t="s">
+      <c r="O83" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="O83" s="29" t="s">
+      <c r="P83" s="30" t="s">
         <v>269</v>
-      </c>
-      <c r="P83" s="30" t="s">
-        <v>270</v>
       </c>
       <c r="Q83" s="29" t="n"/>
       <c r="R83" s="29" t="n"/>
@@ -5959,19 +5956,19 @@
         <v>83</v>
       </c>
       <c r="C84" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D84" s="29" t="s">
         <v>83</v>
       </c>
       <c r="E84" s="29" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F84" s="29" t="s">
         <v>83</v>
       </c>
       <c r="G84" s="29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H84" s="29" t="s">
         <v>83</v>
@@ -5992,20 +5989,20 @@
         <v>83</v>
       </c>
       <c r="N84" s="29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O84" s="29" t="s">
         <v>83</v>
       </c>
       <c r="P84" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="Q84" s="29" t="n"/>
       <c r="R84" s="29" t="n"/>
     </row>
     <row r="88" spans="1:18">
       <c r="A88" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6096,7 +6093,7 @@
     </row>
     <row r="92" spans="1:18">
       <c r="A92" s="29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B92" s="29" t="n">
         <v>1</v>
@@ -6148,7 +6145,7 @@
     </row>
     <row r="93" spans="1:18">
       <c r="A93" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B93" s="29" t="n">
         <v>26</v>
@@ -6181,10 +6178,10 @@
         <v>31</v>
       </c>
       <c r="L93" s="29" t="n">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="M93" s="29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N93" s="29" t="s">
         <v>38</v>
@@ -6200,7 +6197,7 @@
     </row>
     <row r="94" spans="1:18">
       <c r="A94" s="29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B94" s="29" t="n">
         <v>16</v>
@@ -6252,7 +6249,7 @@
     </row>
     <row r="95" spans="1:18">
       <c r="A95" s="29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B95" s="29" t="n">
         <v>9</v>
@@ -6304,7 +6301,7 @@
     </row>
     <row r="96" spans="1:18">
       <c r="A96" s="29" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B96" s="29" t="n">
         <v>9</v>
@@ -6340,7 +6337,7 @@
         <v>276</v>
       </c>
       <c r="M96" s="29" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N96" s="29" t="s">
         <v>108</v>
@@ -6356,7 +6353,7 @@
     </row>
     <row r="97" spans="1:18">
       <c r="A97" s="29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B97" s="29" t="n">
         <v>1</v>
@@ -6408,7 +6405,7 @@
     </row>
     <row r="98" spans="1:18">
       <c r="A98" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B98" s="29" t="n">
         <v>1</v>
@@ -6469,19 +6466,19 @@
         <v>245</v>
       </c>
       <c r="D99" s="29" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E99" s="30" t="s">
         <v>260</v>
       </c>
       <c r="F99" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="G99" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="G99" s="29" t="s">
-        <v>287</v>
-      </c>
       <c r="H99" s="29" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I99" s="30" t="s">
         <v>245</v>
@@ -6493,16 +6490,16 @@
         <v>245</v>
       </c>
       <c r="L99" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="M99" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="M99" s="29" t="s">
+      <c r="N99" s="29" t="s">
         <v>289</v>
       </c>
-      <c r="N99" s="29" t="s">
+      <c r="O99" s="29" t="s">
         <v>290</v>
-      </c>
-      <c r="O99" s="29" t="s">
-        <v>291</v>
       </c>
       <c r="P99" s="30" t="s">
         <v>245</v>
@@ -6524,13 +6521,13 @@
         <v>83</v>
       </c>
       <c r="E100" s="29" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F100" s="29" t="s">
         <v>83</v>
       </c>
       <c r="G100" s="29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H100" s="29" t="s">
         <v>83</v>
@@ -6551,7 +6548,7 @@
         <v>83</v>
       </c>
       <c r="N100" s="29" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O100" s="29" t="s">
         <v>83</v>
@@ -6564,7 +6561,7 @@
     </row>
     <row r="104" spans="1:18">
       <c r="A104" s="29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="106" spans="1:18">
@@ -6655,7 +6652,7 @@
     </row>
     <row r="108" spans="1:18">
       <c r="A108" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B108" s="29" t="n">
         <v>194</v>
@@ -6667,7 +6664,7 @@
         <v>2061</v>
       </c>
       <c r="E108" s="29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F108" s="29" t="n">
         <v>14</v>
@@ -6707,7 +6704,7 @@
     </row>
     <row r="109" spans="1:18">
       <c r="A109" s="29" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B109" s="29" t="n">
         <v>12</v>
@@ -6719,7 +6716,7 @@
         <v>964</v>
       </c>
       <c r="E109" s="29" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F109" s="29" t="n">
         <v>7</v>
@@ -6759,7 +6756,7 @@
     </row>
     <row r="110" spans="1:18">
       <c r="A110" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B110" s="29" t="n">
         <v>35</v>
@@ -6774,10 +6771,10 @@
         <v>108</v>
       </c>
       <c r="F110" s="29" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G110" s="29" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H110" s="29" t="n">
         <v>0</v>
@@ -6792,13 +6789,13 @@
         <v>55</v>
       </c>
       <c r="L110" s="29" t="n">
-        <v>2243</v>
+        <v>2247</v>
       </c>
       <c r="M110" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="N110" s="29" t="s">
         <v>301</v>
-      </c>
-      <c r="N110" s="29" t="s">
-        <v>302</v>
       </c>
       <c r="O110" s="29" t="n">
         <v>0</v>
@@ -6811,7 +6808,7 @@
     </row>
     <row r="111" spans="1:18">
       <c r="A111" s="29" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B111" s="29" t="n">
         <v>15</v>
@@ -6823,7 +6820,7 @@
         <v>1176</v>
       </c>
       <c r="E111" s="29" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F111" s="29" t="n">
         <v>1</v>
@@ -6863,7 +6860,7 @@
     </row>
     <row r="112" spans="1:18">
       <c r="A112" s="29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B112" s="29" t="n">
         <v>0</v>
@@ -6915,7 +6912,7 @@
     </row>
     <row r="113" spans="1:18">
       <c r="A113" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B113" s="29" t="n">
         <v>0</v>
@@ -6967,7 +6964,7 @@
     </row>
     <row r="114" spans="1:18">
       <c r="A114" s="29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B114" s="29" t="n">
         <v>0</v>
@@ -7019,7 +7016,7 @@
     </row>
     <row r="115" spans="1:18">
       <c r="A115" s="29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B115" s="29" t="n">
         <v>8</v>
@@ -7031,13 +7028,13 @@
         <v>647</v>
       </c>
       <c r="E115" s="29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F115" s="29" t="n">
         <v>16</v>
       </c>
       <c r="G115" s="29" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H115" s="29" t="n">
         <v>0</v>
@@ -7071,7 +7068,7 @@
     </row>
     <row r="116" spans="1:18">
       <c r="A116" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B116" s="29" t="n">
         <v>9</v>
@@ -7083,10 +7080,10 @@
         <v>637</v>
       </c>
       <c r="E116" s="29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F116" s="29" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G116" s="29" t="s">
         <v>215</v>
@@ -7104,13 +7101,13 @@
         <v>31</v>
       </c>
       <c r="L116" s="29" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="M116" s="29" t="s">
         <v>36</v>
       </c>
       <c r="N116" s="29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O116" s="29" t="n">
         <v>0</v>
@@ -7126,43 +7123,43 @@
         <v>64</v>
       </c>
       <c r="B117" s="29" t="s">
+        <v>313</v>
+      </c>
+      <c r="C117" s="29" t="s">
         <v>314</v>
       </c>
-      <c r="C117" s="29" t="s">
+      <c r="D117" s="29" t="s">
         <v>315</v>
       </c>
-      <c r="D117" s="29" t="s">
+      <c r="E117" s="29" t="s">
         <v>316</v>
       </c>
-      <c r="E117" s="29" t="s">
+      <c r="F117" s="29" t="s">
         <v>317</v>
       </c>
-      <c r="F117" s="29" t="s">
+      <c r="G117" s="29" t="s">
         <v>318</v>
       </c>
-      <c r="G117" s="29" t="s">
+      <c r="H117" s="29" t="s">
+        <v>264</v>
+      </c>
+      <c r="I117" s="30" t="s">
         <v>319</v>
       </c>
-      <c r="H117" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="I117" s="30" t="s">
+      <c r="J117" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="J117" s="29" t="s">
+      <c r="K117" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="K117" s="29" t="s">
+      <c r="L117" s="29" t="s">
         <v>322</v>
       </c>
-      <c r="L117" s="29" t="s">
+      <c r="M117" s="29" t="s">
         <v>323</v>
       </c>
-      <c r="M117" s="29" t="s">
+      <c r="N117" s="29" t="s">
         <v>324</v>
-      </c>
-      <c r="N117" s="29" t="s">
-        <v>325</v>
       </c>
       <c r="O117" s="29" t="s">
         <v>248</v>
@@ -7181,19 +7178,19 @@
         <v>83</v>
       </c>
       <c r="C118" s="29" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D118" s="29" t="s">
         <v>83</v>
       </c>
       <c r="E118" s="29" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F118" s="29" t="s">
         <v>83</v>
       </c>
       <c r="G118" s="29" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="H118" s="29" t="s">
         <v>83</v>
@@ -7205,7 +7202,7 @@
         <v>83</v>
       </c>
       <c r="K118" s="29" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L118" s="29" t="s">
         <v>83</v>
@@ -7214,7 +7211,7 @@
         <v>83</v>
       </c>
       <c r="N118" s="29" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O118" s="29" t="s">
         <v>83</v>
@@ -7227,7 +7224,7 @@
     </row>
     <row r="122" spans="1:18">
       <c r="A122" s="29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7318,7 +7315,7 @@
     </row>
     <row r="126" spans="1:18">
       <c r="A126" s="29" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B126" s="29" t="n">
         <v>1</v>
@@ -7373,19 +7370,19 @@
         <v>64</v>
       </c>
       <c r="B127" s="29" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C127" s="30" t="s">
         <v>245</v>
       </c>
       <c r="D127" s="29" t="s">
-        <v>334</v>
+        <v>226</v>
       </c>
       <c r="E127" s="30" t="s">
         <v>245</v>
       </c>
       <c r="F127" s="29" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G127" s="30" t="s">
         <v>245</v>
@@ -7474,7 +7471,7 @@
     </row>
     <row r="132" spans="1:18">
       <c r="A132" s="29" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -7565,7 +7562,7 @@
     </row>
     <row r="136" spans="1:18">
       <c r="A136" s="29" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B136" s="29" t="n">
         <v>1</v>
@@ -7620,19 +7617,19 @@
         <v>64</v>
       </c>
       <c r="B137" s="29" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C137" s="30" t="s">
         <v>245</v>
       </c>
       <c r="D137" s="29" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E137" s="30" t="s">
         <v>245</v>
       </c>
       <c r="F137" s="29" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G137" s="30" t="s">
         <v>245</v>
@@ -7721,7 +7718,7 @@
     </row>
     <row r="142" spans="1:18">
       <c r="A142" s="29" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="144" spans="1:18">
@@ -7812,7 +7809,7 @@
     </row>
     <row r="146" spans="1:18">
       <c r="A146" s="29" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B146" s="29" t="n">
         <v>8</v>
@@ -7827,7 +7824,7 @@
         <v>61</v>
       </c>
       <c r="F146" s="29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G146" s="29" t="s">
         <v>62</v>
@@ -7845,7 +7842,7 @@
         <v>31</v>
       </c>
       <c r="L146" s="29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M146" s="29" t="s">
         <v>36</v>
@@ -7867,22 +7864,22 @@
         <v>64</v>
       </c>
       <c r="B147" s="29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C147" s="30" t="s">
+        <v>338</v>
+      </c>
+      <c r="D147" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="E147" s="30" t="s">
         <v>340</v>
       </c>
-      <c r="D147" s="29" t="s">
+      <c r="F147" s="29" t="s">
         <v>341</v>
       </c>
-      <c r="E147" s="30" t="s">
+      <c r="G147" s="30" t="s">
         <v>342</v>
-      </c>
-      <c r="F147" s="29" t="s">
-        <v>343</v>
-      </c>
-      <c r="G147" s="30" t="s">
-        <v>344</v>
       </c>
       <c r="H147" s="29" t="s">
         <v>248</v>
@@ -7897,13 +7894,13 @@
         <v>245</v>
       </c>
       <c r="L147" s="29" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="M147" s="30" t="s">
         <v>36</v>
       </c>
       <c r="N147" s="30" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="O147" s="29" t="s">
         <v>248</v>
